--- a/BOM_BEST/Board_1-4_BOM_v1.xlsx
+++ b/BOM_BEST/Board_1-4_BOM_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinJung\Desktop\computer_share\BOM_BEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\BOM_BEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E173603-2963-42C9-BC6C-42412C1DE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE313E3-FD2C-4332-8230-10E701EA5F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{70D64A86-0535-40F9-B9CD-3501C2447453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{70D64A86-0535-40F9-B9CD-3501C2447453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
   <si>
     <t xml:space="preserve"> BEST RF BOARD Bill of Materials (BOM)</t>
   </si>
@@ -132,12 +132,6 @@
     <t>HMC390LP4</t>
   </si>
   <si>
-    <t>HMC391LP4</t>
-  </si>
-  <si>
-    <t>HMC429LP4</t>
-  </si>
-  <si>
     <t>215 ohms</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>HMC505LP4E</t>
   </si>
   <si>
-    <t>HMC505LP4</t>
-  </si>
-  <si>
     <t>HMC532LP4E</t>
   </si>
   <si>
@@ -388,6 +379,72 @@
   </si>
   <si>
     <t>HMC515LP5E</t>
+  </si>
+  <si>
+    <t>0603YC104KAT2A</t>
+  </si>
+  <si>
+    <t>C1608X7R1E104K</t>
+  </si>
+  <si>
+    <t>ERA-3AEB102V</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF 1/16 1K 5% R*3</t>
+  </si>
+  <si>
+    <t>RC0603FR0749R9L</t>
+  </si>
+  <si>
+    <t>RMCF0603FT49R9</t>
+  </si>
+  <si>
+    <t>ECJ1VB1E104K*2</t>
+  </si>
+  <si>
+    <t>504L2000FTNCFT</t>
+  </si>
+  <si>
+    <t>HMC391LP4E</t>
+  </si>
+  <si>
+    <t>FC0402E1000BST1</t>
+  </si>
+  <si>
+    <t>HMC390LP4E</t>
+  </si>
+  <si>
+    <t>HMC506LP4ETR</t>
+  </si>
+  <si>
+    <t>HFCN-1910D+</t>
+  </si>
+  <si>
+    <t>10+15</t>
+  </si>
+  <si>
+    <t>HFCN-3100D+</t>
+  </si>
+  <si>
+    <t>HFCN-8400</t>
+  </si>
+  <si>
+    <t>21+4+10</t>
+  </si>
+  <si>
+    <t>10+3+9</t>
+  </si>
+  <si>
+    <t>15+5+30</t>
+  </si>
+  <si>
+    <t>7+200</t>
+  </si>
+  <si>
+    <t>7+21+5+5</t>
   </si>
 </sst>
 </file>
@@ -491,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,20 +572,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,6 +586,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,35 +920,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484C5E5-474B-434D-AC06-D59E0F69A41F}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="41.21875" customWidth="1"/>
+    <col min="12" max="12" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
@@ -893,13 +965,13 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -909,7 +981,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -923,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -933,7 +1005,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -946,7 +1018,9 @@
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -955,7 +1029,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -963,10 +1037,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
@@ -977,7 +1051,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -999,7 +1073,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1007,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
@@ -1021,7 +1095,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1034,7 +1108,9 @@
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1043,20 +1119,22 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1065,29 +1143,33 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="1">
+        <v>47</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1100,7 +1182,9 @@
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1109,7 +1193,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1122,7 +1206,9 @@
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>80</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1131,7 +1217,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1144,7 +1230,9 @@
       <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1153,29 +1241,33 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -1188,7 +1280,9 @@
       <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>33</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1197,7 +1291,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1219,7 +1313,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1241,7 +1335,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -1263,7 +1357,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -1285,7 +1379,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -1307,7 +1401,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -1329,7 +1423,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -1337,10 +1431,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
@@ -1351,7 +1445,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -1362,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="2"/>
@@ -1373,7 +1467,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -1384,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
@@ -1395,7 +1489,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -1406,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
@@ -1417,7 +1511,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -1428,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
@@ -1439,7 +1533,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -1461,7 +1555,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -1469,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>31</v>
@@ -1483,7 +1577,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -1505,7 +1599,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -1518,7 +1612,9 @@
       <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1527,20 +1623,22 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>34</v>
+      <c r="C32" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>20</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1549,20 +1647,22 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>29</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="C33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="5">
+        <v>15</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1571,7 +1671,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -1579,12 +1679,14 @@
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1593,13 +1695,13 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1609,25 +1711,25 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>1</v>
       </c>
@@ -1641,10 +1743,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -1652,14 +1754,14 @@
         <v>10</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>2</v>
       </c>
@@ -1674,7 +1776,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>3</v>
       </c>
@@ -1682,14 +1784,14 @@
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>4</v>
       </c>
@@ -1697,14 +1799,14 @@
         <v>16</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>5</v>
       </c>
@@ -1712,14 +1814,14 @@
         <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>6</v>
       </c>
@@ -1727,44 +1829,44 @@
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>7</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>59</v>
+      <c r="C45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>8</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>61</v>
+      <c r="C46" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>9</v>
       </c>
@@ -1772,14 +1874,14 @@
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>10</v>
       </c>
@@ -1787,14 +1889,14 @@
         <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>11</v>
       </c>
@@ -1802,14 +1904,14 @@
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>12</v>
       </c>
@@ -1817,14 +1919,14 @@
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>13</v>
       </c>
@@ -1839,7 +1941,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>14</v>
       </c>
@@ -1850,11 +1952,11 @@
         <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>15</v>
       </c>
@@ -1869,7 +1971,7 @@
       </c>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>16</v>
       </c>
@@ -1877,14 +1979,14 @@
         <v>3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>17</v>
       </c>
@@ -1892,14 +1994,14 @@
         <v>5</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>18</v>
       </c>
@@ -1907,14 +2009,14 @@
         <v>5</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>19</v>
       </c>
@@ -1925,11 +2027,11 @@
         <v>6</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>20</v>
       </c>
@@ -1940,11 +2042,11 @@
         <v>7</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>21</v>
       </c>
@@ -1955,11 +2057,11 @@
         <v>8</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>22</v>
       </c>
@@ -1970,11 +2072,11 @@
         <v>9</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>23</v>
       </c>
@@ -1982,14 +2084,14 @@
         <v>5</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>24</v>
       </c>
@@ -1997,14 +2099,14 @@
         <v>5</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>25</v>
       </c>
@@ -2012,58 +2114,58 @@
         <v>3</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -2071,14 +2173,14 @@
         <v>10</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>2</v>
       </c>
@@ -2093,7 +2195,7 @@
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>3</v>
       </c>
@@ -2101,14 +2203,14 @@
         <v>5</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>4</v>
       </c>
@@ -2116,14 +2218,14 @@
         <v>16</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>5</v>
       </c>
@@ -2131,14 +2233,14 @@
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>6</v>
       </c>
@@ -2146,14 +2248,14 @@
         <v>5</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>7</v>
       </c>
@@ -2161,14 +2263,14 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>8</v>
       </c>
@@ -2176,14 +2278,20 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>9</v>
       </c>
@@ -2198,7 +2306,7 @@
       </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>10</v>
       </c>
@@ -2213,7 +2321,7 @@
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>11</v>
       </c>
@@ -2228,7 +2336,7 @@
       </c>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>12</v>
       </c>
@@ -2236,14 +2344,16 @@
         <v>2</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>13</v>
       </c>
@@ -2251,14 +2361,14 @@
         <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>14</v>
       </c>
@@ -2266,12 +2376,12 @@
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>15</v>
       </c>
@@ -2279,14 +2389,26 @@
         <v>5</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>16</v>
       </c>
@@ -2297,11 +2419,29 @@
         <v>6</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83">
+        <v>1000</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+      <c r="K83">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>17</v>
       </c>
@@ -2312,11 +2452,17 @@
         <v>7</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>18</v>
       </c>
@@ -2327,11 +2473,17 @@
         <v>8</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>19</v>
       </c>
@@ -2342,11 +2494,11 @@
         <v>9</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>20</v>
       </c>
@@ -2354,12 +2506,14 @@
         <v>2</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>21</v>
       </c>
@@ -2367,14 +2521,16 @@
         <v>2</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E88" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>22</v>
       </c>
@@ -2382,14 +2538,16 @@
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E89" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>23</v>
       </c>
@@ -2397,14 +2555,22 @@
         <v>4</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>24</v>
       </c>
@@ -2412,39 +2578,39 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A92" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>1</v>
       </c>
@@ -2458,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>1</v>
       </c>
@@ -2469,14 +2635,14 @@
         <v>5</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>2</v>
       </c>
@@ -2484,14 +2650,14 @@
         <v>10</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>3</v>
       </c>
@@ -2506,7 +2672,7 @@
       </c>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>4</v>
       </c>
@@ -2514,14 +2680,14 @@
         <v>5</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>5</v>
       </c>
@@ -2529,14 +2695,32 @@
         <v>24</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>118</v>
+      </c>
+      <c r="G100">
+        <v>300</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I100">
+        <v>150</v>
+      </c>
+      <c r="J100" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>6</v>
       </c>
@@ -2544,14 +2728,14 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>7</v>
       </c>
@@ -2559,14 +2743,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E102" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>8</v>
       </c>
@@ -2574,14 +2760,14 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>9</v>
       </c>
@@ -2589,14 +2775,14 @@
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>10</v>
       </c>
@@ -2604,14 +2790,14 @@
         <v>2</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>11</v>
       </c>
@@ -2619,14 +2805,14 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>12</v>
       </c>
@@ -2634,14 +2820,14 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>13</v>
       </c>
@@ -2656,7 +2842,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>14</v>
       </c>
@@ -2669,7 +2855,7 @@
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>15</v>
       </c>
@@ -2684,7 +2870,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>16</v>
       </c>
@@ -2692,14 +2878,14 @@
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>17</v>
       </c>
@@ -2707,14 +2893,14 @@
         <v>6</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E112" s="14"/>
+    </row>
+    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>18</v>
       </c>
@@ -2722,14 +2908,14 @@
         <v>5</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>19</v>
       </c>
@@ -2740,11 +2926,11 @@
         <v>6</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>20</v>
       </c>
@@ -2755,11 +2941,11 @@
         <v>7</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>21</v>
       </c>
@@ -2770,11 +2956,11 @@
         <v>8</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>22</v>
       </c>
@@ -2785,11 +2971,11 @@
         <v>9</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>23</v>
       </c>
@@ -2797,14 +2983,14 @@
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>24</v>
       </c>
@@ -2812,14 +2998,14 @@
         <v>3</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>25</v>
       </c>
@@ -2827,15 +3013,23 @@
         <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E120" s="6"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C122" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A37:D37"/>
@@ -2843,11 +3037,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
